--- a/image test/ref/newwordlist_dict.xlsx
+++ b/image test/ref/newwordlist_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PH\Documents\GitHub\Dyslexia\image test\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31586C86-1134-49FF-8B52-F544366FC715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6E116F-5390-40B7-B67A-F6068D961743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1524" windowWidth="13308" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-288" yWindow="180" windowWidth="13308" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,12 +79,6 @@
     <t>zebra</t>
   </si>
   <si>
-    <t>บีเวอร์</t>
-  </si>
-  <si>
-    <t>beaver</t>
-  </si>
-  <si>
     <t>สายยาง</t>
   </si>
   <si>
@@ -149,6 +143,12 @@
   </si>
   <si>
     <t>นกฮูก</t>
+  </si>
+  <si>
+    <t>บันได</t>
+  </si>
+  <si>
+    <t>ladder</t>
   </si>
 </sst>
 </file>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,10 +535,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -546,10 +546,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -601,10 +601,10 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -623,10 +623,10 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -634,10 +634,10 @@
         <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -656,10 +656,10 @@
         <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -667,10 +667,10 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -678,10 +678,10 @@
         <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -700,10 +700,10 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -722,10 +722,10 @@
         <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -733,10 +733,10 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
